--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
@@ -192,10 +187,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$59</c:f>
+              <c:f>Sheet1!$A$3:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43859</c:v>
                 </c:pt>
@@ -366,16 +361,31 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$59</c:f>
+              <c:f>Sheet1!$B$3:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>194</c:v>
                 </c:pt>
@@ -546,6 +556,21 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1579,7 +1604,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43915</v>
+        <v>43920</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2044,6 +2069,46 @@
       </c>
       <c r="B59">
         <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B60">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B61">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B62">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B63">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B64">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -187,10 +187,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$64</c:f>
+              <c:f>Sheet1!$A$3:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>43859</c:v>
                 </c:pt>
@@ -376,16 +376,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$64</c:f>
+              <c:f>Sheet1!$B$3:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>194</c:v>
                 </c:pt>
@@ -571,6 +574,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1604,7 +1610,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2109,6 +2115,14 @@
       </c>
       <c r="B64">
         <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B65">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,10 +192,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$65</c:f>
+              <c:f>Sheet1!$A$3:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43859</c:v>
                 </c:pt>
@@ -379,16 +384,19 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$65</c:f>
+              <c:f>Sheet1!$B$3:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>194</c:v>
                 </c:pt>
@@ -577,6 +585,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1610,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2123,6 +2134,14 @@
       </c>
       <c r="B65">
         <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B66">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -192,10 +192,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$66</c:f>
+              <c:f>Sheet1!$A$3:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43859</c:v>
                 </c:pt>
@@ -387,16 +387,19 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$66</c:f>
+              <c:f>Sheet1!$B$3:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>194</c:v>
                 </c:pt>
@@ -588,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,12 +744,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1321,7 +1324,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1608,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1621,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2142,6 +2145,14 @@
       </c>
       <c r="B66">
         <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B67">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,6 +2155,30 @@
         <v>286</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B68">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B69">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B70">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0405\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="4020" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1613,9 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1624,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43923</v>
+        <v>43926</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/contacts1.xlsx
+++ b/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0405\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,9 +1611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1622,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2175,6 +2177,14 @@
       </c>
       <c r="B70">
         <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B71">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
